--- a/biology/Médecine/Heure_d'or/Heure_d'or.xlsx
+++ b/biology/Médecine/Heure_d'or/Heure_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heure_d%27or</t>
+          <t>Heure_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'heure d'or est un concept de médecine d'urgence. La plupart des blessés graves (polytraumatisé, ou bien victime d'une hémorragie interne) meurent dans les premières heures. On a donc un taux de survie optimal si la victime se retrouve sur une table d'opération dans l'heure qui suit l'accident.
 Une célèbre étude de Trunkey menée en Californie en 1983 met en évidence pour les morts consécutives à un accident de la route que :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heure_d%27or</t>
+          <t>Heure_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Organisation de l'aide médicale urgente autour de l'heure d'or</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le respect de l'heure d'or nécessite une organisation des soins et une formation du personnel intervenant en préhospitalier (secouristes, secouristes paramédicaux, SMUR). Il faut en effet :
 avoir une structure de soins fixe assurant une veille avec un bloc opératoire opérationnel tous les jours en toute heure (voir accueil et traitement des urgences) ;
